--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Pdcd1lg2</t>
+  </si>
+  <si>
+    <t>Rgmb</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pdcd1lg2</t>
-  </si>
-  <si>
-    <t>Rgmb</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7764743333333333</v>
+        <v>0.1892466666666667</v>
       </c>
       <c r="H2">
-        <v>2.329423</v>
+        <v>0.56774</v>
       </c>
       <c r="I2">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N2">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q2">
-        <v>7.181837839505333</v>
+        <v>2.436991778066667</v>
       </c>
       <c r="R2">
-        <v>64.636540555548</v>
+        <v>21.9329260026</v>
       </c>
       <c r="S2">
-        <v>0.1008254065003665</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="T2">
-        <v>0.1008254065003665</v>
+        <v>0.1584922499374361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7764743333333333</v>
+        <v>0.1892466666666667</v>
       </c>
       <c r="H3">
-        <v>2.329423</v>
+        <v>0.56774</v>
       </c>
       <c r="I3">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>106.269536</v>
       </c>
       <c r="O3">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P3">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q3">
-        <v>27.50518903974755</v>
+        <v>6.703718485404444</v>
       </c>
       <c r="R3">
-        <v>247.546701357728</v>
+        <v>60.33346636864</v>
       </c>
       <c r="S3">
-        <v>0.3861437598252682</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="T3">
-        <v>0.3861437598252683</v>
+        <v>0.4359831802722916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7764743333333333</v>
+        <v>0.1892466666666667</v>
       </c>
       <c r="H4">
-        <v>2.329423</v>
+        <v>0.56774</v>
       </c>
       <c r="I4">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N4">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O4">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P4">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q4">
-        <v>18.30135483596633</v>
+        <v>5.774774916784445</v>
       </c>
       <c r="R4">
-        <v>164.712193523697</v>
+        <v>51.97297425106001</v>
       </c>
       <c r="S4">
-        <v>0.2569316631870441</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="T4">
-        <v>0.2569316631870441</v>
+        <v>0.3755683862706898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7764743333333333</v>
+        <v>0.1892466666666667</v>
       </c>
       <c r="H5">
-        <v>2.329423</v>
+        <v>0.56774</v>
       </c>
       <c r="I5">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7842757860019568</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N5">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O5">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P5">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q5">
-        <v>2.875925824132666</v>
+        <v>0.4606091021377778</v>
       </c>
       <c r="R5">
-        <v>25.883332417194</v>
+        <v>4.145481919240001</v>
       </c>
       <c r="S5">
-        <v>0.04037495648927791</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="T5">
-        <v>0.04037495648927791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.2135783333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.6407350000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.2157242139980432</v>
-      </c>
-      <c r="J6">
-        <v>0.2157242139980433</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>9.249292000000001</v>
-      </c>
-      <c r="N6">
-        <v>27.747876</v>
-      </c>
-      <c r="O6">
-        <v>0.1285586120341026</v>
-      </c>
-      <c r="P6">
-        <v>0.1285586120341026</v>
-      </c>
-      <c r="Q6">
-        <v>1.975448369873334</v>
-      </c>
-      <c r="R6">
-        <v>17.77903532886</v>
-      </c>
-      <c r="S6">
-        <v>0.02773320553373617</v>
-      </c>
-      <c r="T6">
-        <v>0.02773320553373617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.2135783333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.6407350000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.2157242139980432</v>
-      </c>
-      <c r="J7">
-        <v>0.2157242139980433</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>35.42317866666667</v>
-      </c>
-      <c r="N7">
-        <v>106.269536</v>
-      </c>
-      <c r="O7">
-        <v>0.4923571104926409</v>
-      </c>
-      <c r="P7">
-        <v>0.492357110492641</v>
-      </c>
-      <c r="Q7">
-        <v>7.565623460995556</v>
-      </c>
-      <c r="R7">
-        <v>68.09061114895999</v>
-      </c>
-      <c r="S7">
-        <v>0.1062133506673727</v>
-      </c>
-      <c r="T7">
-        <v>0.1062133506673727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.2135783333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.6407350000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.2157242139980432</v>
-      </c>
-      <c r="J8">
-        <v>0.2157242139980433</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>23.569813</v>
-      </c>
-      <c r="N8">
-        <v>70.709439</v>
-      </c>
-      <c r="O8">
-        <v>0.327603717688159</v>
-      </c>
-      <c r="P8">
-        <v>0.3276037176881591</v>
-      </c>
-      <c r="Q8">
-        <v>5.034001377518334</v>
-      </c>
-      <c r="R8">
-        <v>45.30601239766501</v>
-      </c>
-      <c r="S8">
-        <v>0.07067205450111497</v>
-      </c>
-      <c r="T8">
-        <v>0.07067205450111498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.2135783333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.6407350000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.2157242139980432</v>
-      </c>
-      <c r="J9">
-        <v>0.2157242139980433</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.703826</v>
-      </c>
-      <c r="N9">
-        <v>11.111478</v>
-      </c>
-      <c r="O9">
-        <v>0.05148055978509729</v>
-      </c>
-      <c r="P9">
-        <v>0.0514805597850973</v>
-      </c>
-      <c r="Q9">
-        <v>0.7910569840366667</v>
-      </c>
-      <c r="R9">
-        <v>7.119512856330001</v>
-      </c>
-      <c r="S9">
-        <v>0.01110560329581939</v>
-      </c>
-      <c r="T9">
-        <v>0.01110560329581939</v>
+        <v>0.0299561835195825</v>
       </c>
     </row>
   </sheetData>
